--- a/output/5Y_P12_KFSDIV.xlsx
+++ b/output/5Y_P12_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-35</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-33</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-32</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-31</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-30</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-29</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-28</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-27</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-24</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-17</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>17.107</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.8894</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4004</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3877</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6367</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.0061</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.835</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.4216</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2404</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.382</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.9583</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2036</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9136</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.4338</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9657</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3568</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2487</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3991</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.5985</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.6955</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3398</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.8469</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.129</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.716</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-35</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-33</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-32</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-31</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-30</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-29</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-28</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-27</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-24</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -5356,10 +5359,10 @@
         <v>216385.8425</v>
       </c>
       <c r="K20" s="1">
-        <v>154198.717</v>
+        <v>154230.4204</v>
       </c>
       <c r="L20" s="1">
-        <v>12.4539</v>
+        <v>12.4564</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -5409,10 +5412,10 @@
         <v>208806.4609</v>
       </c>
       <c r="K21" s="1">
-        <v>171742.3507</v>
+        <v>171774.054</v>
       </c>
       <c r="L21" s="1">
-        <v>12.5951</v>
+        <v>12.5975</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -5462,10 +5465,10 @@
         <v>221028.0795</v>
       </c>
       <c r="K22" s="1">
-        <v>204956.0406</v>
+        <v>204987.7439</v>
       </c>
       <c r="L22" s="1">
-        <v>12.5447</v>
+        <v>12.5467</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-17</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -5515,10 +5518,10 @@
         <v>230782.0668</v>
       </c>
       <c r="K23" s="1">
-        <v>212632.415</v>
+        <v>212664.1184</v>
       </c>
       <c r="L23" s="1">
-        <v>12.5408</v>
+        <v>12.5426</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -5568,10 +5571,10 @@
         <v>257309.4834</v>
       </c>
       <c r="K24" s="1">
-        <v>222888.6986</v>
+        <v>222920.402</v>
       </c>
       <c r="L24" s="1">
-        <v>12.5353</v>
+        <v>12.537</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -5621,10 +5624,10 @@
         <v>275352.6754</v>
       </c>
       <c r="K25" s="1">
-        <v>223954.4831</v>
+        <v>223986.1864</v>
       </c>
       <c r="L25" s="1">
-        <v>12.5371</v>
+        <v>12.5388</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -5674,10 +5677,10 @@
         <v>294828.8527</v>
       </c>
       <c r="K26" s="1">
-        <v>225914.8675</v>
+        <v>225946.5709</v>
       </c>
       <c r="L26" s="1">
-        <v>12.5439</v>
+        <v>12.5457</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -5727,10 +5730,10 @@
         <v>326376.3686</v>
       </c>
       <c r="K27" s="1">
-        <v>226432.9223</v>
+        <v>226464.6257</v>
       </c>
       <c r="L27" s="1">
-        <v>12.5467</v>
+        <v>12.5485</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -5780,10 +5783,10 @@
         <v>349472.905</v>
       </c>
       <c r="K28" s="1">
-        <v>222973.9865</v>
+        <v>223019.4962</v>
       </c>
       <c r="L28" s="1">
-        <v>12.5188</v>
+        <v>12.5213</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -5833,10 +5836,10 @@
         <v>333244.0116</v>
       </c>
       <c r="K29" s="1">
-        <v>219865.0299</v>
+        <v>219922.9598</v>
       </c>
       <c r="L29" s="1">
-        <v>12.4858</v>
+        <v>12.4891</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -5886,10 +5889,10 @@
         <v>356152.278</v>
       </c>
       <c r="K30" s="1">
-        <v>256239.1697</v>
+        <v>256297.0996</v>
       </c>
       <c r="L30" s="1">
-        <v>12.6686</v>
+        <v>12.6715</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -5939,10 +5942,10 @@
         <v>367531.636</v>
       </c>
       <c r="K31" s="1">
-        <v>261129.3152</v>
+        <v>261187.2451</v>
       </c>
       <c r="L31" s="1">
-        <v>12.6936</v>
+        <v>12.6964</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -5992,10 +5995,10 @@
         <v>375896.0169</v>
       </c>
       <c r="K32" s="1">
-        <v>269764.9255</v>
+        <v>269822.8554</v>
       </c>
       <c r="L32" s="1">
-        <v>12.7374</v>
+        <v>12.7401</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -6045,10 +6048,10 @@
         <v>422024.8817</v>
       </c>
       <c r="K33" s="1">
-        <v>281412.5768</v>
+        <v>281470.5067</v>
       </c>
       <c r="L33" s="1">
-        <v>12.7901</v>
+        <v>12.7927</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -6098,10 +6101,10 @@
         <v>432706.694</v>
       </c>
       <c r="K34" s="1">
-        <v>264700.928</v>
+        <v>264825.6531</v>
       </c>
       <c r="L34" s="1">
-        <v>12.6563</v>
+        <v>12.6623</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -6151,10 +6154,10 @@
         <v>427224.9834</v>
       </c>
       <c r="K35" s="1">
-        <v>274056.4906</v>
+        <v>274181.2157</v>
       </c>
       <c r="L35" s="1">
-        <v>12.7337</v>
+        <v>12.7395</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -6204,10 +6207,10 @@
         <v>476024.6782</v>
       </c>
       <c r="K36" s="1">
-        <v>299602.8446</v>
+        <v>299727.5697</v>
       </c>
       <c r="L36" s="1">
-        <v>12.8789</v>
+        <v>12.8842</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -6257,10 +6260,10 @@
         <v>502067.3828</v>
       </c>
       <c r="K37" s="1">
-        <v>290032.8799</v>
+        <v>290195.8429</v>
       </c>
       <c r="L37" s="1">
-        <v>12.807</v>
+        <v>12.8142</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -6310,10 +6313,10 @@
         <v>517194.5219</v>
       </c>
       <c r="K38" s="1">
-        <v>283965.9497</v>
+        <v>284153.1383</v>
       </c>
       <c r="L38" s="1">
-        <v>12.7496</v>
+        <v>12.758</v>
       </c>
       <c r="M38" s="1">
         <v>0.75</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>17.107</v>
@@ -6363,10 +6366,10 @@
         <v>557538.3556</v>
       </c>
       <c r="K39" s="1">
-        <v>288858.3394</v>
+        <v>289045.528</v>
       </c>
       <c r="L39" s="1">
-        <v>12.7985</v>
+        <v>12.8067</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.8894</v>
@@ -6416,10 +6419,10 @@
         <v>562703.9992</v>
       </c>
       <c r="K40" s="1">
-        <v>283507.5598</v>
+        <v>283716.1312</v>
       </c>
       <c r="L40" s="1">
-        <v>12.7375</v>
+        <v>12.7469</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4004</v>
@@ -6469,10 +6472,10 @@
         <v>581385.1661</v>
       </c>
       <c r="K41" s="1">
-        <v>298401.4099</v>
+        <v>298609.9813</v>
       </c>
       <c r="L41" s="1">
-        <v>12.8968</v>
+        <v>12.9058</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3877</v>
@@ -6522,10 +6525,10 @@
         <v>566599.6855</v>
       </c>
       <c r="K42" s="1">
-        <v>319778.0763</v>
+        <v>319986.6477</v>
       </c>
       <c r="L42" s="1">
-        <v>13.085</v>
+        <v>13.0935</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6367</v>
@@ -6575,10 +6578,10 @@
         <v>556450.2725</v>
       </c>
       <c r="K43" s="1">
-        <v>354617.283</v>
+        <v>354825.8544</v>
       </c>
       <c r="L43" s="1">
-        <v>13.2825</v>
+        <v>13.2903</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.0061</v>
@@ -6628,10 +6631,10 @@
         <v>519540.8568</v>
       </c>
       <c r="K44" s="1">
-        <v>384747.8974</v>
+        <v>384956.4688</v>
       </c>
       <c r="L44" s="1">
-        <v>13.3813</v>
+        <v>13.3886</v>
       </c>
       <c r="M44" s="1">
         <v>0.5</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.835</v>
@@ -6681,10 +6684,10 @@
         <v>569654.7411</v>
       </c>
       <c r="K45" s="1">
-        <v>441764.864</v>
+        <v>441973.4354</v>
       </c>
       <c r="L45" s="1">
-        <v>13.3352</v>
+        <v>13.3415</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.4216</v>
@@ -6734,10 +6737,10 @@
         <v>598312.9871</v>
       </c>
       <c r="K46" s="1">
-        <v>424291.8573</v>
+        <v>424570.2567</v>
       </c>
       <c r="L46" s="1">
-        <v>13.3144</v>
+        <v>13.3231</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2404</v>
@@ -6787,10 +6790,10 @@
         <v>571453.9325999999</v>
       </c>
       <c r="K47" s="1">
-        <v>415598.9009</v>
+        <v>415912.0107</v>
       </c>
       <c r="L47" s="1">
-        <v>13.2925</v>
+        <v>13.3025</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.382</v>
@@ -6840,10 +6843,10 @@
         <v>562698.3199999999</v>
       </c>
       <c r="K48" s="1">
-        <v>462645.9037</v>
+        <v>462959.0135</v>
       </c>
       <c r="L48" s="1">
-        <v>13.2899</v>
+        <v>13.2989</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.9583</v>
@@ -6893,10 +6896,10 @@
         <v>556457.4859</v>
       </c>
       <c r="K49" s="1">
-        <v>502629.0407</v>
+        <v>502942.1505</v>
       </c>
       <c r="L49" s="1">
-        <v>13.2151</v>
+        <v>13.2233</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2036</v>
@@ -6946,10 +6949,10 @@
         <v>576198.6309</v>
       </c>
       <c r="K50" s="1">
-        <v>528814.7088</v>
+        <v>529127.8186</v>
       </c>
       <c r="L50" s="1">
-        <v>13.1481</v>
+        <v>13.1559</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9136</v>
@@ -6999,10 +7002,10 @@
         <v>629185.9336</v>
       </c>
       <c r="K51" s="1">
-        <v>528969.504</v>
+        <v>529282.6138000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.1478</v>
+        <v>13.1556</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.4338</v>
@@ -7052,10 +7055,10 @@
         <v>659325.135</v>
       </c>
       <c r="K52" s="1">
-        <v>510386.4862</v>
+        <v>510773.8448</v>
       </c>
       <c r="L52" s="1">
-        <v>13.1555</v>
+        <v>13.1655</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9657</v>
@@ -7105,10 +7108,10 @@
         <v>651556.5979000001</v>
       </c>
       <c r="K53" s="1">
-        <v>500206.5976</v>
+        <v>500634.6433</v>
       </c>
       <c r="L53" s="1">
-        <v>13.1495</v>
+        <v>13.1607</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3568</v>
@@ -7158,10 +7161,10 @@
         <v>687400.6842</v>
       </c>
       <c r="K54" s="1">
-        <v>528086.5110000001</v>
+        <v>528514.5567</v>
       </c>
       <c r="L54" s="1">
-        <v>13.141</v>
+        <v>13.1517</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2487</v>
@@ -7211,10 +7214,10 @@
         <v>693110.6189</v>
       </c>
       <c r="K55" s="1">
-        <v>522379.0639</v>
+        <v>522829.9248</v>
       </c>
       <c r="L55" s="1">
-        <v>13.1384</v>
+        <v>13.1498</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3991</v>
@@ -7264,10 +7267,10 @@
         <v>709183.4832</v>
       </c>
       <c r="K56" s="1">
-        <v>536726.4097</v>
+        <v>537177.2706</v>
       </c>
       <c r="L56" s="1">
-        <v>13.142</v>
+        <v>13.1531</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.5985</v>
@@ -7317,10 +7320,10 @@
         <v>742055.3473</v>
       </c>
       <c r="K57" s="1">
-        <v>540611.7764</v>
+        <v>541062.6372999999</v>
       </c>
       <c r="L57" s="1">
-        <v>13.144</v>
+        <v>13.155</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.6955</v>
@@ -7370,10 +7373,10 @@
         <v>756042.3827</v>
       </c>
       <c r="K58" s="1">
-        <v>542434.2226</v>
+        <v>542885.0834999999</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1456</v>
+        <v>13.1565</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3398</v>
@@ -7423,10 +7426,10 @@
         <v>751213.759</v>
       </c>
       <c r="K59" s="1">
-        <v>548463.9899</v>
+        <v>548914.8508</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1517</v>
+        <v>13.1625</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.8469</v>
@@ -7476,10 +7479,10 @@
         <v>750943.8903</v>
       </c>
       <c r="K60" s="1">
-        <v>573368.028</v>
+        <v>573818.8889</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1609</v>
+        <v>13.1712</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.129</v>
@@ -7529,10 +7532,10 @@
         <v>773771.8229</v>
       </c>
       <c r="K61" s="1">
-        <v>604924.2014</v>
+        <v>605375.0623</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1455</v>
+        <v>13.1553</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.716</v>
@@ -7582,10 +7585,10 @@
         <v>764900.9031</v>
       </c>
       <c r="K62" s="1">
-        <v>601958.4073</v>
+        <v>602421.1266</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1455</v>
+        <v>13.1556</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-35</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-33</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-32</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-31</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-30</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-29</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-28</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-27</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-24</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -8668,10 +8671,10 @@
         <v>217196.2479</v>
       </c>
       <c r="K20" s="1">
-        <v>161360.8786</v>
+        <v>161391.9788</v>
       </c>
       <c r="L20" s="1">
-        <v>12.4872</v>
+        <v>12.4896</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -8721,10 +8724,10 @@
         <v>208786.3512</v>
       </c>
       <c r="K21" s="1">
-        <v>180175.135</v>
+        <v>180206.2351</v>
       </c>
       <c r="L21" s="1">
-        <v>12.6288</v>
+        <v>12.631</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -8774,10 +8777,10 @@
         <v>221114.9534</v>
       </c>
       <c r="K22" s="1">
-        <v>215459.7549</v>
+        <v>215490.855</v>
       </c>
       <c r="L22" s="1">
-        <v>12.5722</v>
+        <v>12.574</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-17</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -8827,10 +8830,10 @@
         <v>230854.0786</v>
       </c>
       <c r="K23" s="1">
-        <v>224073.575</v>
+        <v>224104.6751</v>
       </c>
       <c r="L23" s="1">
-        <v>12.5668</v>
+        <v>12.5686</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -8880,10 +8883,10 @@
         <v>258256.1665</v>
       </c>
       <c r="K24" s="1">
-        <v>235449.6456</v>
+        <v>235480.7457</v>
       </c>
       <c r="L24" s="1">
-        <v>12.5598</v>
+        <v>12.5614</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -8933,10 +8936,10 @@
         <v>276755.1465</v>
       </c>
       <c r="K25" s="1">
-        <v>237192.569</v>
+        <v>237223.6691</v>
       </c>
       <c r="L25" s="1">
-        <v>12.5624</v>
+        <v>12.5641</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -8986,10 +8989,10 @@
         <v>296794.1466</v>
       </c>
       <c r="K26" s="1">
-        <v>239913.0167</v>
+        <v>239944.1168</v>
       </c>
       <c r="L26" s="1">
-        <v>12.5711</v>
+        <v>12.5727</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -9039,10 +9042,10 @@
         <v>329660.8808</v>
       </c>
       <c r="K27" s="1">
-        <v>241139.6399</v>
+        <v>241170.74</v>
       </c>
       <c r="L27" s="1">
-        <v>12.5773</v>
+        <v>12.5789</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -9092,10 +9095,10 @@
         <v>353609.6545</v>
       </c>
       <c r="K28" s="1">
-        <v>238172.1212</v>
+        <v>238215.0662</v>
       </c>
       <c r="L28" s="1">
-        <v>12.5551</v>
+        <v>12.5573</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -9145,10 +9148,10 @@
         <v>335602.6654</v>
       </c>
       <c r="K29" s="1">
-        <v>235597.6582</v>
+        <v>235650.8881</v>
       </c>
       <c r="L29" s="1">
-        <v>12.5298</v>
+        <v>12.5327</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -9198,10 +9201,10 @@
         <v>359396.9295</v>
       </c>
       <c r="K30" s="1">
-        <v>275204.32</v>
+        <v>275257.5499</v>
       </c>
       <c r="L30" s="1">
-        <v>12.71</v>
+        <v>12.7125</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -9251,10 +9254,10 @@
         <v>370874.2053</v>
       </c>
       <c r="K31" s="1">
-        <v>281236.032</v>
+        <v>281289.2619</v>
       </c>
       <c r="L31" s="1">
-        <v>12.7379</v>
+        <v>12.7403</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -9304,10 +9307,10 @@
         <v>379111.0702</v>
       </c>
       <c r="K32" s="1">
-        <v>291331.2165</v>
+        <v>291384.4464</v>
       </c>
       <c r="L32" s="1">
-        <v>12.7841</v>
+        <v>12.7864</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -9357,10 +9360,10 @@
         <v>428055.726</v>
       </c>
       <c r="K33" s="1">
-        <v>304721.5157</v>
+        <v>304774.7456</v>
       </c>
       <c r="L33" s="1">
-        <v>12.8384</v>
+        <v>12.8406</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -9410,10 +9413,10 @@
         <v>438793.1192</v>
       </c>
       <c r="K34" s="1">
-        <v>287581.8013</v>
+        <v>287703.5374</v>
       </c>
       <c r="L34" s="1">
-        <v>12.7139</v>
+        <v>12.7193</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -9463,10 +9466,10 @@
         <v>432002.8425</v>
       </c>
       <c r="K35" s="1">
-        <v>298618.9319</v>
+        <v>298740.6679</v>
       </c>
       <c r="L35" s="1">
-        <v>12.7963</v>
+        <v>12.8015</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -9516,10 +9519,10 @@
         <v>484123.6369</v>
       </c>
       <c r="K36" s="1">
-        <v>327268.6106</v>
+        <v>327390.3467</v>
       </c>
       <c r="L36" s="1">
-        <v>12.9413</v>
+        <v>12.9461</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -9569,10 +9572,10 @@
         <v>511608.0664</v>
       </c>
       <c r="K37" s="1">
-        <v>317846.5259</v>
+        <v>318005.9091</v>
       </c>
       <c r="L37" s="1">
-        <v>12.8779</v>
+        <v>12.8843</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -9622,10 +9625,10 @@
         <v>527210.3353</v>
       </c>
       <c r="K38" s="1">
-        <v>312247.0062</v>
+        <v>312428.7484</v>
       </c>
       <c r="L38" s="1">
-        <v>12.8304</v>
+        <v>12.8379</v>
       </c>
       <c r="M38" s="1">
         <v>0.75</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>17.107</v>
@@ -9675,10 +9678,10 @@
         <v>570405.0436</v>
       </c>
       <c r="K39" s="1">
-        <v>318637.0494</v>
+        <v>318818.7917</v>
       </c>
       <c r="L39" s="1">
-        <v>12.8874</v>
+        <v>12.8947</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.8894</v>
@@ -9728,10 +9731,10 @@
         <v>575095.4637</v>
       </c>
       <c r="K40" s="1">
-        <v>313851.5065</v>
+        <v>314052.3727</v>
       </c>
       <c r="L40" s="1">
-        <v>12.8388</v>
+        <v>12.847</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4004</v>
@@ -9781,10 +9784,10 @@
         <v>594593.6181</v>
       </c>
       <c r="K41" s="1">
-        <v>331317.6276</v>
+        <v>331518.4938</v>
       </c>
       <c r="L41" s="1">
-        <v>13.0042</v>
+        <v>13.0121</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3877</v>
@@ -9834,10 +9837,10 @@
         <v>577226.8449</v>
       </c>
       <c r="K42" s="1">
-        <v>355996.5986</v>
+        <v>356197.4649</v>
       </c>
       <c r="L42" s="1">
-        <v>13.1951</v>
+        <v>13.2026</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6367</v>
@@ -9887,10 +9890,10 @@
         <v>564920.7716</v>
       </c>
       <c r="K43" s="1">
-        <v>395630.9954</v>
+        <v>395831.8617</v>
       </c>
       <c r="L43" s="1">
-        <v>13.3885</v>
+        <v>13.3953</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.0061</v>
@@ -9940,10 +9943,10 @@
         <v>522861.8809</v>
       </c>
       <c r="K44" s="1">
-        <v>430185.7718</v>
+        <v>430386.6381</v>
       </c>
       <c r="L44" s="1">
-        <v>13.4829</v>
+        <v>13.4892</v>
       </c>
       <c r="M44" s="1">
         <v>0.5</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.835</v>
@@ -9993,10 +9996,10 @@
         <v>577449.0965</v>
       </c>
       <c r="K45" s="1">
-        <v>494694.8148</v>
+        <v>494895.6811</v>
       </c>
       <c r="L45" s="1">
-        <v>13.4223</v>
+        <v>13.4278</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.4216</v>
@@ -10046,10 +10049,10 @@
         <v>608261.0003</v>
       </c>
       <c r="K46" s="1">
-        <v>476526.831</v>
+        <v>476800.3027</v>
       </c>
       <c r="L46" s="1">
-        <v>13.4061</v>
+        <v>13.4138</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2404</v>
@@ -10099,10 +10102,10 @@
         <v>577040.9756</v>
       </c>
       <c r="K47" s="1">
-        <v>468135.359</v>
+        <v>468442.3373</v>
       </c>
       <c r="L47" s="1">
-        <v>13.3888</v>
+        <v>13.3975</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.382</v>
@@ -10152,10 +10155,10 @@
         <v>565974.5238</v>
       </c>
       <c r="K48" s="1">
-        <v>522087.1241</v>
+        <v>522394.1024</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3761</v>
+        <v>13.3839</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.9583</v>
@@ -10205,10 +10208,10 @@
         <v>557712.8483</v>
       </c>
       <c r="K49" s="1">
-        <v>568288.8735</v>
+        <v>568595.8517</v>
       </c>
       <c r="L49" s="1">
-        <v>13.2916</v>
+        <v>13.2988</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2036</v>
@@ -10258,10 +10261,10 @@
         <v>578686.175</v>
       </c>
       <c r="K50" s="1">
-        <v>599130.819</v>
+        <v>599437.7973</v>
       </c>
       <c r="L50" s="1">
-        <v>13.2173</v>
+        <v>13.2241</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9136</v>
@@ -10311,10 +10314,10 @@
         <v>637212.2079</v>
       </c>
       <c r="K51" s="1">
-        <v>600745.5486</v>
+        <v>601052.5269000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.2144</v>
+        <v>13.2212</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.4338</v>
@@ -10364,10 +10367,10 @@
         <v>670027.9748</v>
       </c>
       <c r="K52" s="1">
-        <v>581222.0257999999</v>
+        <v>581607.0106</v>
       </c>
       <c r="L52" s="1">
-        <v>13.2239</v>
+        <v>13.2326</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9657</v>
@@ -10417,10 +10420,10 @@
         <v>659845.5684</v>
       </c>
       <c r="K53" s="1">
-        <v>571198.4546000001</v>
+        <v>571623.5018</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2198</v>
+        <v>13.2296</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3568</v>
@@ -10470,10 +10473,10 @@
         <v>699240.8128</v>
       </c>
       <c r="K54" s="1">
-        <v>604409.9556</v>
+        <v>604835.0029</v>
       </c>
       <c r="L54" s="1">
-        <v>13.207</v>
+        <v>13.2163</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2487</v>
@@ -10523,10 +10526,10 @@
         <v>704342.5196999999</v>
       </c>
       <c r="K55" s="1">
-        <v>599489.3988</v>
+        <v>599934.1157</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2056</v>
+        <v>13.2154</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3991</v>
@@ -10576,10 +10579,10 @@
         <v>721288.1779</v>
       </c>
       <c r="K56" s="1">
-        <v>617485.2447</v>
+        <v>617929.9615</v>
       </c>
       <c r="L56" s="1">
-        <v>13.2076</v>
+        <v>13.2171</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.5985</v>
@@ -10629,10 +10632,10 @@
         <v>757488.6934</v>
       </c>
       <c r="K57" s="1">
-        <v>623582.9179999999</v>
+        <v>624027.6348</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2097</v>
+        <v>13.2191</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.6955</v>
@@ -10682,10 +10685,10 @@
         <v>772070.0241</v>
       </c>
       <c r="K58" s="1">
-        <v>627360.2197</v>
+        <v>627804.9365</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2121</v>
+        <v>13.2215</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3398</v>
@@ -10735,10 +10738,10 @@
         <v>764954.7334</v>
       </c>
       <c r="K59" s="1">
-        <v>636020.4615</v>
+        <v>636465.1784</v>
       </c>
       <c r="L59" s="1">
-        <v>13.2188</v>
+        <v>13.2281</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.8469</v>
@@ -10788,10 +10791,10 @@
         <v>763034.1891</v>
       </c>
       <c r="K60" s="1">
-        <v>666511.1618999999</v>
+        <v>666955.8787</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2255</v>
+        <v>13.2344</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.129</v>
@@ -10841,10 +10844,10 @@
         <v>787905.1759</v>
       </c>
       <c r="K61" s="1">
-        <v>704808.3959999999</v>
+        <v>705253.1128</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2059</v>
+        <v>13.2142</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.716</v>
@@ -10894,10 +10897,10 @@
         <v>775961.4318</v>
       </c>
       <c r="K62" s="1">
-        <v>703199.4506</v>
+        <v>703650.6006</v>
       </c>
       <c r="L62" s="1">
-        <v>13.206</v>
+        <v>13.2144</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-35</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-33</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-32</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-31</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-30</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-29</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-28</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-27</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-24</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -11980,10 +11983,10 @@
         <v>217997.7967</v>
       </c>
       <c r="K20" s="1">
-        <v>168960.6991</v>
+        <v>168991.0534</v>
       </c>
       <c r="L20" s="1">
-        <v>12.5227</v>
+        <v>12.525</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -12033,10 +12036,10 @@
         <v>208707.829</v>
       </c>
       <c r="K21" s="1">
-        <v>189146.8033</v>
+        <v>189177.1576</v>
       </c>
       <c r="L21" s="1">
-        <v>12.6645</v>
+        <v>12.6665</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -12086,10 +12089,10 @@
         <v>221137.3294</v>
       </c>
       <c r="K22" s="1">
-        <v>225026.5411</v>
+        <v>225056.8954</v>
       </c>
       <c r="L22" s="1">
-        <v>12.6033</v>
+        <v>12.605</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-17</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -12139,10 +12142,10 @@
         <v>230860.3967</v>
       </c>
       <c r="K23" s="1">
-        <v>235026.5411</v>
+        <v>235056.8954</v>
       </c>
       <c r="L23" s="1">
-        <v>12.5961</v>
+        <v>12.5977</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -12192,10 +12195,10 @@
         <v>259001.2871</v>
       </c>
       <c r="K24" s="1">
-        <v>245026.5411</v>
+        <v>245056.8954</v>
       </c>
       <c r="L24" s="1">
-        <v>12.5889</v>
+        <v>12.5905</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -12245,10 +12248,10 @@
         <v>277972.8131</v>
       </c>
       <c r="K25" s="1">
-        <v>251611.022</v>
+        <v>251641.3763</v>
       </c>
       <c r="L25" s="1">
-        <v>12.5975</v>
+        <v>12.599</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -12298,10 +12301,10 @@
         <v>298617.4979</v>
       </c>
       <c r="K26" s="1">
-        <v>255199.1404</v>
+        <v>255229.4947</v>
       </c>
       <c r="L26" s="1">
-        <v>12.6079</v>
+        <v>12.6094</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -12351,10 +12354,10 @@
         <v>332907.2097</v>
       </c>
       <c r="K27" s="1">
-        <v>257245.6356</v>
+        <v>257275.9899</v>
       </c>
       <c r="L27" s="1">
-        <v>12.6173</v>
+        <v>12.6188</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -12404,10 +12407,10 @@
         <v>357779.6524</v>
       </c>
       <c r="K28" s="1">
-        <v>254871.1388</v>
+        <v>254910.9709</v>
       </c>
       <c r="L28" s="1">
-        <v>12.6009</v>
+        <v>12.6029</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -12457,10 +12460,10 @@
         <v>337838.9938</v>
       </c>
       <c r="K29" s="1">
-        <v>252943.5587</v>
+        <v>252991.0915</v>
       </c>
       <c r="L29" s="1">
-        <v>12.5835</v>
+        <v>12.5859</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -12510,10 +12513,10 @@
         <v>362597.8193</v>
       </c>
       <c r="K30" s="1">
-        <v>296138.7899</v>
+        <v>296186.3226</v>
       </c>
       <c r="L30" s="1">
-        <v>12.7597</v>
+        <v>12.7617</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -12563,10 +12566,10 @@
         <v>374182.0061</v>
       </c>
       <c r="K31" s="1">
-        <v>303495.2731</v>
+        <v>303542.8058</v>
       </c>
       <c r="L31" s="1">
-        <v>12.7902</v>
+        <v>12.7922</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -12616,10 +12619,10 @@
         <v>382278.4603</v>
       </c>
       <c r="K32" s="1">
-        <v>315273.8003</v>
+        <v>315321.333</v>
       </c>
       <c r="L32" s="1">
-        <v>12.8385</v>
+        <v>12.8404</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -12669,10 +12672,10 @@
         <v>434324.0865</v>
       </c>
       <c r="K33" s="1">
-        <v>330670.2883</v>
+        <v>330717.821</v>
       </c>
       <c r="L33" s="1">
-        <v>12.894</v>
+        <v>12.8958</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -12722,10 +12725,10 @@
         <v>445122.9588</v>
       </c>
       <c r="K34" s="1">
-        <v>313157.0607</v>
+        <v>313274.5925</v>
       </c>
       <c r="L34" s="1">
-        <v>12.7792</v>
+        <v>12.784</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -12775,10 +12778,10 @@
         <v>436879.9233</v>
       </c>
       <c r="K35" s="1">
-        <v>326159.5392</v>
+        <v>326277.071</v>
       </c>
       <c r="L35" s="1">
-        <v>12.8663</v>
+        <v>12.8709</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -12828,10 +12831,10 @@
         <v>492692.7619</v>
       </c>
       <c r="K36" s="1">
-        <v>358366.1472</v>
+        <v>358483.679</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0103</v>
+        <v>13.0146</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -12881,10 +12884,10 @@
         <v>521788.2904</v>
       </c>
       <c r="K37" s="1">
-        <v>349228.8677</v>
+        <v>349382.9086</v>
       </c>
       <c r="L37" s="1">
-        <v>12.9556</v>
+        <v>12.9613</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -12934,10 +12937,10 @@
         <v>537923.3223</v>
       </c>
       <c r="K38" s="1">
-        <v>344279.6041</v>
+        <v>344453.4077</v>
       </c>
       <c r="L38" s="1">
-        <v>12.9181</v>
+        <v>12.9247</v>
       </c>
       <c r="M38" s="1">
         <v>0.75</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>17.107</v>
@@ -12987,10 +12990,10 @@
         <v>584319.7862</v>
       </c>
       <c r="K39" s="1">
-        <v>352485.0133</v>
+        <v>352658.8169</v>
       </c>
       <c r="L39" s="1">
-        <v>12.9832</v>
+        <v>12.9896</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.8894</v>
@@ -13040,10 +13043,10 @@
         <v>588473.6850000001</v>
       </c>
       <c r="K40" s="1">
-        <v>348479.8975</v>
+        <v>348669.7063</v>
       </c>
       <c r="L40" s="1">
-        <v>12.9471</v>
+        <v>12.9541</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4004</v>
@@ -13093,10 +13096,10 @@
         <v>608889.179</v>
       </c>
       <c r="K41" s="1">
-        <v>369003.2519</v>
+        <v>369193.0607</v>
       </c>
       <c r="L41" s="1">
-        <v>13.1185</v>
+        <v>13.1252</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3877</v>
@@ -13146,10 +13149,10 @@
         <v>588587.5514999999</v>
       </c>
       <c r="K42" s="1">
-        <v>397585.4492</v>
+        <v>397775.258</v>
       </c>
       <c r="L42" s="1">
-        <v>13.3115</v>
+        <v>13.3179</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6367</v>
@@ -13199,10 +13202,10 @@
         <v>573820.894</v>
       </c>
       <c r="K43" s="1">
-        <v>442842.253</v>
+        <v>443032.0618</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5001</v>
+        <v>13.5058</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.0061</v>
@@ -13252,10 +13255,10 @@
         <v>525867.4783</v>
       </c>
       <c r="K44" s="1">
-        <v>482624.58</v>
+        <v>482814.3887</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5891</v>
+        <v>13.5944</v>
       </c>
       <c r="M44" s="1">
         <v>0.5</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.835</v>
@@ -13305,10 +13308,10 @@
         <v>585586.0471</v>
       </c>
       <c r="K45" s="1">
-        <v>555899.8782</v>
+        <v>556089.687</v>
       </c>
       <c r="L45" s="1">
-        <v>13.513</v>
+        <v>13.5176</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.4216</v>
@@ -13358,10 +13361,10 @@
         <v>618879.9162</v>
       </c>
       <c r="K46" s="1">
-        <v>537135.1568999999</v>
+        <v>537399.9558</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5011</v>
+        <v>13.5077</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2404</v>
@@ -13411,10 +13414,10 @@
         <v>582616.827</v>
       </c>
       <c r="K47" s="1">
-        <v>529303.191</v>
+        <v>529599.2625</v>
       </c>
       <c r="L47" s="1">
-        <v>13.488</v>
+        <v>13.4955</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.382</v>
@@ -13464,10 +13467,10 @@
         <v>568862.8075</v>
       </c>
       <c r="K48" s="1">
-        <v>591462.709</v>
+        <v>591758.7805</v>
       </c>
       <c r="L48" s="1">
-        <v>13.4644</v>
+        <v>13.4711</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.9583</v>
@@ -13517,10 +13520,10 @@
         <v>558917.9518</v>
       </c>
       <c r="K49" s="1">
-        <v>627499.6923</v>
+        <v>627795.7638</v>
       </c>
       <c r="L49" s="1">
-        <v>13.3988</v>
+        <v>13.4051</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2036</v>
@@ -13570,10 +13573,10 @@
         <v>580546.8769</v>
       </c>
       <c r="K50" s="1">
-        <v>637499.6923</v>
+        <v>637795.7638</v>
       </c>
       <c r="L50" s="1">
-        <v>13.374</v>
+        <v>13.3802</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9136</v>
@@ -13623,10 +13626,10 @@
         <v>642023.4116</v>
       </c>
       <c r="K51" s="1">
-        <v>647499.6923</v>
+        <v>647795.7638</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3547</v>
+        <v>13.3608</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.4338</v>
@@ -13676,10 +13679,10 @@
         <v>677908.8493</v>
       </c>
       <c r="K52" s="1">
-        <v>667347.5531</v>
+        <v>667643.6246</v>
       </c>
       <c r="L52" s="1">
-        <v>13.3419</v>
+        <v>13.3479</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9657</v>
@@ -13729,10 +13732,10 @@
         <v>664876.7092</v>
       </c>
       <c r="K53" s="1">
-        <v>657790.9351</v>
+        <v>658125.2026</v>
       </c>
       <c r="L53" s="1">
-        <v>13.3402</v>
+        <v>13.347</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3568</v>
@@ -13782,10 +13785,10 @@
         <v>708394.6535</v>
       </c>
       <c r="K54" s="1">
-        <v>694621.6443</v>
+        <v>694955.9118999999</v>
       </c>
       <c r="L54" s="1">
-        <v>13.3213</v>
+        <v>13.3277</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2487</v>
@@ -13835,10 +13838,10 @@
         <v>712773.3258</v>
       </c>
       <c r="K55" s="1">
-        <v>694003.7071</v>
+        <v>694340.4448000001</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3212</v>
+        <v>13.3277</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3991</v>
@@ -13888,10 +13891,10 @@
         <v>730758.889</v>
       </c>
       <c r="K56" s="1">
-        <v>716660.1467</v>
+        <v>716996.8844</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3198</v>
+        <v>13.326</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.5985</v>
@@ -13941,10 +13944,10 @@
         <v>770933.7343</v>
       </c>
       <c r="K57" s="1">
-        <v>725734.4617</v>
+        <v>726071.1994</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3211</v>
+        <v>13.3273</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.6955</v>
@@ -13994,10 +13997,10 @@
         <v>786227.542</v>
       </c>
       <c r="K58" s="1">
-        <v>732203.9919</v>
+        <v>732540.7296</v>
       </c>
       <c r="L58" s="1">
-        <v>13.3237</v>
+        <v>13.3298</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3398</v>
@@ -14047,10 +14050,10 @@
         <v>776354.6044</v>
       </c>
       <c r="K59" s="1">
-        <v>744391.1202</v>
+        <v>744727.8578999999</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3301</v>
+        <v>13.3361</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.8469</v>
@@ -14100,10 +14103,10 @@
         <v>772428.8155</v>
       </c>
       <c r="K60" s="1">
-        <v>781998.3128</v>
+        <v>782335.0506</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3318</v>
+        <v>13.3376</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.129</v>
@@ -14153,10 +14156,10 @@
         <v>799483.7086</v>
       </c>
       <c r="K61" s="1">
-        <v>812379.6917</v>
+        <v>812716.4295</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3141</v>
+        <v>13.3196</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.716</v>
@@ -14206,10 +14209,10 @@
         <v>783985.4788</v>
       </c>
       <c r="K62" s="1">
-        <v>822379.6917</v>
+        <v>822716.4295</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3121</v>
+        <v>13.3175</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.1692</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0872</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>11.0976</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-35</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.8505</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-34</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.8576</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-33</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5699</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-32</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.5994</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-31</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6663</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-30</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.701</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-29</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8109</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-28</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.9322</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-27</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.5846</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-26</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2867</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.0645</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-24</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8083</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.5636</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.1788</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.5668</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.962</v>
@@ -15292,10 +15295,10 @@
         <v>218581.76</v>
       </c>
       <c r="K20" s="1">
-        <v>177231.413</v>
+        <v>177260.8643</v>
       </c>
       <c r="L20" s="1">
-        <v>12.575</v>
+        <v>12.5771</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.2659</v>
@@ -15345,10 +15348,10 @@
         <v>208359.0417</v>
       </c>
       <c r="K21" s="1">
-        <v>198898.5089</v>
+        <v>198927.9601</v>
       </c>
       <c r="L21" s="1">
-        <v>12.7151</v>
+        <v>12.717</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.4103</v>
@@ -15398,10 +15401,10 @@
         <v>220820.8523</v>
       </c>
       <c r="K22" s="1">
-        <v>225768.8118</v>
+        <v>225798.263</v>
       </c>
       <c r="L22" s="1">
-        <v>12.663</v>
+        <v>12.6647</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-17</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.3976</v>
@@ -15451,10 +15454,10 @@
         <v>230544.2441</v>
       </c>
       <c r="K23" s="1">
-        <v>235768.8118</v>
+        <v>235798.263</v>
       </c>
       <c r="L23" s="1">
-        <v>12.6532</v>
+        <v>12.6548</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.9013</v>
@@ -15504,10 +15507,10 @@
         <v>258660.7909</v>
       </c>
       <c r="K24" s="1">
-        <v>245768.8118</v>
+        <v>245798.263</v>
       </c>
       <c r="L24" s="1">
-        <v>12.6436</v>
+        <v>12.6451</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.3527</v>
@@ -15557,10 +15560,10 @@
         <v>277984.8454</v>
       </c>
       <c r="K25" s="1">
-        <v>264153.7295</v>
+        <v>264183.1807</v>
       </c>
       <c r="L25" s="1">
-        <v>12.663</v>
+        <v>12.6644</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-14</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.8804</v>
@@ -15610,10 +15613,10 @@
         <v>299266.3534</v>
       </c>
       <c r="K26" s="1">
-        <v>272537.6163</v>
+        <v>272567.0676</v>
       </c>
       <c r="L26" s="1">
-        <v>12.6839</v>
+        <v>12.6852</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-13</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6268</v>
@@ -15663,10 +15666,10 @@
         <v>335091.5737</v>
       </c>
       <c r="K27" s="1">
-        <v>275529.5729</v>
+        <v>275559.0241</v>
       </c>
       <c r="L27" s="1">
-        <v>12.696</v>
+        <v>12.6974</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-12</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3636</v>
@@ -15716,10 +15719,10 @@
         <v>360965.5676</v>
       </c>
       <c r="K28" s="1">
-        <v>273864.3299</v>
+        <v>273900.4279</v>
       </c>
       <c r="L28" s="1">
-        <v>12.6857</v>
+        <v>12.6874</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-11</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8711</v>
@@ -15769,10 +15772,10 @@
         <v>338920.9722</v>
       </c>
       <c r="K29" s="1">
-        <v>272712.8311</v>
+        <v>272753.5293</v>
       </c>
       <c r="L29" s="1">
-        <v>12.6763</v>
+        <v>12.6782</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1252</v>
@@ -15822,10 +15825,10 @@
         <v>364730.4501</v>
       </c>
       <c r="K30" s="1">
-        <v>319893.8277</v>
+        <v>319934.5259</v>
       </c>
       <c r="L30" s="1">
-        <v>12.8429</v>
+        <v>12.8445</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-9</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1934</v>
@@ -15875,10 +15878,10 @@
         <v>376431.4348</v>
       </c>
       <c r="K31" s="1">
-        <v>328784.8111</v>
+        <v>328825.5094</v>
       </c>
       <c r="L31" s="1">
-        <v>12.8751</v>
+        <v>12.8767</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.1176</v>
@@ -15928,10 +15931,10 @@
         <v>384373.1701</v>
       </c>
       <c r="K32" s="1">
-        <v>342502.9276</v>
+        <v>342543.6258</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9241</v>
+        <v>12.9257</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-7</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3311</v>
@@ -15981,10 +15984,10 @@
         <v>439836.3195</v>
       </c>
       <c r="K33" s="1">
-        <v>360207.9215</v>
+        <v>360248.6198</v>
       </c>
       <c r="L33" s="1">
-        <v>12.9792</v>
+        <v>12.9807</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-6</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>15.3637</v>
@@ -16034,10 +16037,10 @@
         <v>450703.2499</v>
       </c>
       <c r="K34" s="1">
-        <v>342393.573</v>
+        <v>342505.4739</v>
       </c>
       <c r="L34" s="1">
-        <v>12.8753</v>
+        <v>12.8796</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6447</v>
@@ -16087,10 +16090,10 @@
         <v>440845.9568</v>
       </c>
       <c r="K35" s="1">
-        <v>357690.998</v>
+        <v>357802.8989</v>
       </c>
       <c r="L35" s="1">
-        <v>12.9661</v>
+        <v>12.9701</v>
       </c>
       <c r="M35" s="1">
         <v>1</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-4</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.486</v>
@@ -16140,10 +16143,10 @@
         <v>500766.9527</v>
       </c>
       <c r="K36" s="1">
-        <v>393976.8769</v>
+        <v>394088.7778</v>
       </c>
       <c r="L36" s="1">
-        <v>13.1066</v>
+        <v>13.1103</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-3</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.1958</v>
@@ -16193,10 +16196,10 @@
         <v>531664.6784</v>
       </c>
       <c r="K37" s="1">
-        <v>385294.2322</v>
+        <v>385440.8256</v>
       </c>
       <c r="L37" s="1">
-        <v>13.0609</v>
+        <v>13.0658</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>16.4264</v>
@@ -16246,10 +16249,10 @@
         <v>548397.747</v>
       </c>
       <c r="K38" s="1">
-        <v>381219.0472</v>
+        <v>381381.9131</v>
       </c>
       <c r="L38" s="1">
-        <v>13.0337</v>
+        <v>13.0392</v>
       </c>
       <c r="M38" s="1">
         <v>0.75</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>17.107</v>
@@ -16299,10 +16302,10 @@
         <v>598394.0828</v>
       </c>
       <c r="K39" s="1">
-        <v>391618.8867</v>
+        <v>391781.7526</v>
       </c>
       <c r="L39" s="1">
-        <v>13.1061</v>
+        <v>13.1116</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.8894</v>
@@ -16352,10 +16355,10 @@
         <v>601941.5037999999</v>
       </c>
       <c r="K40" s="1">
-        <v>388659.9048</v>
+        <v>388834.5953</v>
       </c>
       <c r="L40" s="1">
-        <v>13.0827</v>
+        <v>13.0885</v>
       </c>
       <c r="M40" s="1">
         <v>1</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>16.4004</v>
@@ -16405,10 +16408,10 @@
         <v>623388.1101</v>
       </c>
       <c r="K41" s="1">
-        <v>412816.9624</v>
+        <v>412991.6529</v>
       </c>
       <c r="L41" s="1">
-        <v>13.2587</v>
+        <v>13.2644</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>15.3877</v>
@@ -16458,10 +16461,10 @@
         <v>599744.9337000001</v>
       </c>
       <c r="K42" s="1">
-        <v>446015.8974</v>
+        <v>446190.5879</v>
       </c>
       <c r="L42" s="1">
-        <v>13.4522</v>
+        <v>13.4574</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>14.6367</v>
@@ -16511,10 +16514,10 @@
         <v>582166.7368</v>
       </c>
       <c r="K43" s="1">
-        <v>497873.7116</v>
+        <v>498048.4021</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6333</v>
+        <v>13.6381</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.0061</v>
@@ -16564,10 +16567,10 @@
         <v>527455.2772</v>
       </c>
       <c r="K44" s="1">
-        <v>543840.6801999999</v>
+        <v>544015.3707</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7149</v>
+        <v>13.7193</v>
       </c>
       <c r="M44" s="1">
         <v>0.5</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.835</v>
@@ -16617,10 +16620,10 @@
         <v>589453.6263</v>
       </c>
       <c r="K45" s="1">
-        <v>566592.3397</v>
+        <v>566767.0302</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6861</v>
+        <v>13.6903</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>14.4216</v>
@@ -16670,10 +16673,10 @@
         <v>624757.5276</v>
       </c>
       <c r="K46" s="1">
-        <v>594436.3184</v>
+        <v>594611.0089</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6943</v>
+        <v>13.6983</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.2404</v>
@@ -16723,10 +16726,10 @@
         <v>582728.508</v>
       </c>
       <c r="K47" s="1">
-        <v>604436.3184</v>
+        <v>604611.0089</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7061</v>
+        <v>13.7101</v>
       </c>
       <c r="M47" s="1">
         <v>0.4</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.382</v>
@@ -16776,10 +16779,10 @@
         <v>570138.515</v>
       </c>
       <c r="K48" s="1">
-        <v>614436.3184</v>
+        <v>614611.0089</v>
       </c>
       <c r="L48" s="1">
-        <v>13.6988</v>
+        <v>13.7027</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>11.9583</v>
@@ -16829,10 +16832,10 @@
         <v>560189.2434</v>
       </c>
       <c r="K49" s="1">
-        <v>640312.1963</v>
+        <v>640486.8868</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6414</v>
+        <v>13.6451</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.2036</v>
@@ -16882,10 +16885,10 @@
         <v>581844.2454</v>
       </c>
       <c r="K50" s="1">
-        <v>650312.1963</v>
+        <v>650486.8868</v>
       </c>
       <c r="L50" s="1">
-        <v>13.6124</v>
+        <v>13.616</v>
       </c>
       <c r="M50" s="1">
         <v>0.4</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.9136</v>
@@ -16935,10 +16938,10 @@
         <v>643434.6109</v>
       </c>
       <c r="K51" s="1">
-        <v>660312.1963</v>
+        <v>660486.8868</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5891</v>
+        <v>13.5927</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.4338</v>
@@ -16988,10 +16991,10 @@
         <v>679640.8641</v>
       </c>
       <c r="K52" s="1">
-        <v>687510.6928</v>
+        <v>687685.3833</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5621</v>
+        <v>13.5656</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.9657</v>
@@ -17041,10 +17044,10 @@
         <v>665575.0153</v>
       </c>
       <c r="K53" s="1">
-        <v>697510.6928</v>
+        <v>697685.3833</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5607</v>
+        <v>13.5641</v>
       </c>
       <c r="M53" s="1">
         <v>0.3</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.3568</v>
@@ -17094,10 +17097,10 @@
         <v>709798.8568</v>
       </c>
       <c r="K54" s="1">
-        <v>707510.6928</v>
+        <v>707685.3833</v>
       </c>
       <c r="L54" s="1">
-        <v>13.5523</v>
+        <v>13.5556</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.2487</v>
@@ -17147,10 +17150,10 @@
         <v>713877.7548</v>
       </c>
       <c r="K55" s="1">
-        <v>731398.485</v>
+        <v>731573.1755</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5467</v>
+        <v>13.5499</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.3991</v>
@@ -17200,10 +17203,10 @@
         <v>732054.9246</v>
       </c>
       <c r="K56" s="1">
-        <v>741398.485</v>
+        <v>741573.1755</v>
       </c>
       <c r="L56" s="1">
-        <v>13.543</v>
+        <v>13.5462</v>
       </c>
       <c r="M56" s="1">
         <v>0.4</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.5985</v>
@@ -17253,10 +17256,10 @@
         <v>772765.1912</v>
       </c>
       <c r="K57" s="1">
-        <v>751398.485</v>
+        <v>751573.1755</v>
       </c>
       <c r="L57" s="1">
-        <v>13.5414</v>
+        <v>13.5446</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.6955</v>
@@ -17306,10 +17309,10 @@
         <v>788228.9664</v>
       </c>
       <c r="K58" s="1">
-        <v>781106.3717</v>
+        <v>781281.0622</v>
       </c>
       <c r="L58" s="1">
-        <v>13.5446</v>
+        <v>13.5476</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>13.3398</v>
@@ -17359,10 +17362,10 @@
         <v>777457.7606</v>
       </c>
       <c r="K59" s="1">
-        <v>791106.3717</v>
+        <v>791281.0622</v>
       </c>
       <c r="L59" s="1">
-        <v>13.5468</v>
+        <v>13.5498</v>
       </c>
       <c r="M59" s="1">
         <v>0.3</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.8469</v>
@@ -17412,10 +17415,10 @@
         <v>774091.2951</v>
       </c>
       <c r="K60" s="1">
-        <v>801106.3717</v>
+        <v>801281.0622</v>
       </c>
       <c r="L60" s="1">
-        <v>13.5445</v>
+        <v>13.5475</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>13.129</v>
@@ -17465,10 +17468,10 @@
         <v>801201.5171000001</v>
       </c>
       <c r="K61" s="1">
-        <v>826873.8184</v>
+        <v>827048.509</v>
       </c>
       <c r="L61" s="1">
-        <v>13.5225</v>
+        <v>13.5254</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.716</v>
@@ -17518,10 +17521,10 @@
         <v>785649.2596</v>
       </c>
       <c r="K62" s="1">
-        <v>836873.8184</v>
+        <v>837048.509</v>
       </c>
       <c r="L62" s="1">
-        <v>13.518</v>
+        <v>13.5209</v>
       </c>
       <c r="M62" s="1">
         <v>0.3</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.547</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1455</v>
+        <v>13.1556</v>
       </c>
       <c r="E3" s="1">
-        <v>13.206</v>
+        <v>13.2144</v>
       </c>
       <c r="F3" s="1">
-        <v>13.3121</v>
+        <v>13.3175</v>
       </c>
       <c r="G3" s="1">
-        <v>13.518</v>
+        <v>13.5209</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>253763.6603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9368</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2697</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1028</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9529</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9386</v>
       </c>
     </row>
   </sheetData>
